--- a/data/coded_segments/zm_4_2.xlsx
+++ b/data/coded_segments/zm_4_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7B3088C-3B6E-D744-8B2D-F641ED120A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CDFCC1-EC20-9041-8870-78192CF599D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="858">
   <si>
     <t>Color</t>
   </si>
@@ -2650,6 +2650,18 @@
   </si>
   <si>
     <t>10/30/18 14:54:00</t>
+  </si>
+  <si>
+    <t>1: 705</t>
+  </si>
+  <si>
+    <t>1: 723</t>
+  </si>
+  <si>
+    <t>Delftia acidovorans</t>
+  </si>
+  <si>
+    <t>11/8/18 14:43:00</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16332,6 +16344,47 @@
         <v>853</v>
       </c>
     </row>
+    <row r="323" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="H323" s="3">
+        <v>0</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="J323" s="3">
+        <v>19</v>
+      </c>
+      <c r="K323" s="4">
+        <v>0.15776799999999999</v>
+      </c>
+      <c r="L323" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M323" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_4_2.xlsx
+++ b/data/coded_segments/zm_4_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CDFCC1-EC20-9041-8870-78192CF599D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF518FF2-9FDC-C349-BEA7-4BF71DC1A3EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="881">
   <si>
     <t>Color</t>
   </si>
@@ -2662,6 +2662,75 @@
   </si>
   <si>
     <t>11/8/18 14:43:00</t>
+  </si>
+  <si>
+    <t>1: 1414</t>
+  </si>
+  <si>
+    <t>1: 1421</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>11/14/18 10:06:00</t>
+  </si>
+  <si>
+    <t>1: 1431</t>
+  </si>
+  <si>
+    <t>1: 1433</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>1: 1423</t>
+  </si>
+  <si>
+    <t>1: 1426</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1: 1435</t>
+  </si>
+  <si>
+    <t>1: 1438</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>11/14/18 10:07:00</t>
+  </si>
+  <si>
+    <t>1: 513</t>
+  </si>
+  <si>
+    <t>1: 523</t>
+  </si>
+  <si>
+    <t>1: 530</t>
+  </si>
+  <si>
+    <t>1: 518</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1: 532</t>
+  </si>
+  <si>
+    <t>1: 535</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>11/14/18 10:08:00</t>
   </si>
 </sst>
 </file>
@@ -3126,7 +3195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M323"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16385,6 +16454,498 @@
         <v>857</v>
       </c>
     </row>
+    <row r="324" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H324" s="3">
+        <v>0</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J324" s="3">
+        <v>8</v>
+      </c>
+      <c r="K324" s="4">
+        <v>1.6160999999999998E-2</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M324" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H325" s="3">
+        <v>0</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J325" s="3">
+        <v>3</v>
+      </c>
+      <c r="K325" s="4">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M325" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H326" s="3">
+        <v>0</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="J326" s="3">
+        <v>4</v>
+      </c>
+      <c r="K326" s="4">
+        <v>8.0809999999999996E-3</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M326" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H327" s="3">
+        <v>0</v>
+      </c>
+      <c r="I327" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="J327" s="3">
+        <v>4</v>
+      </c>
+      <c r="K327" s="4">
+        <v>8.0809999999999996E-3</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M327" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H328" s="3">
+        <v>0</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J328" s="3">
+        <v>8</v>
+      </c>
+      <c r="K328" s="4">
+        <v>1.6160999999999998E-2</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M328" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H329" s="3">
+        <v>0</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="J329" s="3">
+        <v>4</v>
+      </c>
+      <c r="K329" s="4">
+        <v>8.0809999999999996E-3</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M329" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H330" s="3">
+        <v>0</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J330" s="3">
+        <v>3</v>
+      </c>
+      <c r="K330" s="4">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M330" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H331" s="3">
+        <v>0</v>
+      </c>
+      <c r="I331" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="J331" s="3">
+        <v>4</v>
+      </c>
+      <c r="K331" s="4">
+        <v>8.0809999999999996E-3</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M331" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H332" s="3">
+        <v>0</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J332" s="3">
+        <v>8</v>
+      </c>
+      <c r="K332" s="4">
+        <v>4.1216000000000003E-2</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M332" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="H333" s="3">
+        <v>0</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J333" s="3">
+        <v>8</v>
+      </c>
+      <c r="K333" s="4">
+        <v>4.1216000000000003E-2</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A334" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H334" s="3">
+        <v>0</v>
+      </c>
+      <c r="I334" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="J334" s="3">
+        <v>4</v>
+      </c>
+      <c r="K334" s="4">
+        <v>2.0608000000000001E-2</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H335" s="3">
+        <v>0</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="J335" s="3">
+        <v>4</v>
+      </c>
+      <c r="K335" s="4">
+        <v>2.0608000000000001E-2</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
